--- a/reference/model/Type 1A 初始位置表.xlsx
+++ b/reference/model/Type 1A 初始位置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\140.116.71.101\users\91802-研究\Casper\金屬中心專題\給俊良\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou918\Downloads\AI-optimization\reference\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2E69B-7E4E-47E4-9181-5918EB9494AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2A327E-7292-474E-B9EA-0C9AF8111883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5390,6 +5390,846 @@
         <v>162.91487000000001</v>
       </c>
     </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>695.05850199999998</v>
+      </c>
+      <c r="B361">
+        <v>77.015174000000002</v>
+      </c>
+      <c r="C361">
+        <v>23.075330000000001</v>
+      </c>
+      <c r="D361">
+        <v>162.5564</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>693.18239500000004</v>
+      </c>
+      <c r="B362">
+        <v>76.777179000000004</v>
+      </c>
+      <c r="C362">
+        <v>23.562828</v>
+      </c>
+      <c r="D362">
+        <v>162.19714500000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>691.26377200000002</v>
+      </c>
+      <c r="B363">
+        <v>76.542289999999994</v>
+      </c>
+      <c r="C363">
+        <v>24.052078999999999</v>
+      </c>
+      <c r="D363">
+        <v>161.83721199999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>689.302954</v>
+      </c>
+      <c r="B364">
+        <v>76.310535999999999</v>
+      </c>
+      <c r="C364">
+        <v>24.542961999999999</v>
+      </c>
+      <c r="D364">
+        <v>161.47671099999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>687.30031599999995</v>
+      </c>
+      <c r="B365">
+        <v>76.081946000000002</v>
+      </c>
+      <c r="C365">
+        <v>25.035357999999999</v>
+      </c>
+      <c r="D365">
+        <v>161.11575199999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>685.25628300000005</v>
+      </c>
+      <c r="B366">
+        <v>75.856558000000007</v>
+      </c>
+      <c r="C366">
+        <v>25.529146000000001</v>
+      </c>
+      <c r="D366">
+        <v>160.754447</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>683.171334</v>
+      </c>
+      <c r="B367">
+        <v>75.634410000000003</v>
+      </c>
+      <c r="C367">
+        <v>26.0242</v>
+      </c>
+      <c r="D367">
+        <v>160.392911</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>681.04600100000005</v>
+      </c>
+      <c r="B368">
+        <v>75.415547000000004</v>
+      </c>
+      <c r="C368">
+        <v>26.520394</v>
+      </c>
+      <c r="D368">
+        <v>160.03125600000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>678.88087399999995</v>
+      </c>
+      <c r="B369">
+        <v>75.200018999999998</v>
+      </c>
+      <c r="C369">
+        <v>27.017598</v>
+      </c>
+      <c r="D369">
+        <v>159.669601</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>676.67659900000001</v>
+      </c>
+      <c r="B370">
+        <v>74.987879000000007</v>
+      </c>
+      <c r="C370">
+        <v>27.515682000000002</v>
+      </c>
+      <c r="D370">
+        <v>159.308063</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>674.43388200000004</v>
+      </c>
+      <c r="B371">
+        <v>74.779188000000005</v>
+      </c>
+      <c r="C371">
+        <v>28.014509</v>
+      </c>
+      <c r="D371">
+        <v>158.946764</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>672.15349200000003</v>
+      </c>
+      <c r="B372">
+        <v>74.574010999999999</v>
+      </c>
+      <c r="C372">
+        <v>28.513940000000002</v>
+      </c>
+      <c r="D372">
+        <v>158.585824</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>669.83626000000004</v>
+      </c>
+      <c r="B373">
+        <v>74.372421000000003</v>
+      </c>
+      <c r="C373">
+        <v>29.013833999999999</v>
+      </c>
+      <c r="D373">
+        <v>158.225369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>667.48308299999997</v>
+      </c>
+      <c r="B374">
+        <v>74.174493999999996</v>
+      </c>
+      <c r="C374">
+        <v>29.514043999999998</v>
+      </c>
+      <c r="D374">
+        <v>157.86552499999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>665.09492499999999</v>
+      </c>
+      <c r="B375">
+        <v>73.980316000000002</v>
+      </c>
+      <c r="C375">
+        <v>30.014420000000001</v>
+      </c>
+      <c r="D375">
+        <v>157.50642199999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>662.672822</v>
+      </c>
+      <c r="B376">
+        <v>73.78998</v>
+      </c>
+      <c r="C376">
+        <v>30.514804999999999</v>
+      </c>
+      <c r="D376">
+        <v>157.148191</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>660.21788100000003</v>
+      </c>
+      <c r="B377">
+        <v>73.603584999999995</v>
+      </c>
+      <c r="C377">
+        <v>31.015041</v>
+      </c>
+      <c r="D377">
+        <v>156.79096799999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>657.73128599999995</v>
+      </c>
+      <c r="B378">
+        <v>73.421239</v>
+      </c>
+      <c r="C378">
+        <v>31.514959999999999</v>
+      </c>
+      <c r="D378">
+        <v>156.43489</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>655.21429699999999</v>
+      </c>
+      <c r="B379">
+        <v>73.243059000000002</v>
+      </c>
+      <c r="C379">
+        <v>32.014391000000003</v>
+      </c>
+      <c r="D379">
+        <v>156.08009799999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>652.66825600000004</v>
+      </c>
+      <c r="B380">
+        <v>73.069171999999995</v>
+      </c>
+      <c r="C380">
+        <v>32.513156000000002</v>
+      </c>
+      <c r="D380">
+        <v>155.72673599999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>650.09459000000004</v>
+      </c>
+      <c r="B381">
+        <v>72.899711999999994</v>
+      </c>
+      <c r="C381">
+        <v>33.011069999999997</v>
+      </c>
+      <c r="D381">
+        <v>155.374953</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>647.49481200000002</v>
+      </c>
+      <c r="B382">
+        <v>72.734825999999998</v>
+      </c>
+      <c r="C382">
+        <v>33.507942</v>
+      </c>
+      <c r="D382">
+        <v>155.024899</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>644.87052400000005</v>
+      </c>
+      <c r="B383">
+        <v>72.574669999999998</v>
+      </c>
+      <c r="C383">
+        <v>34.003571999999998</v>
+      </c>
+      <c r="D383">
+        <v>154.67672899999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>642.22342600000002</v>
+      </c>
+      <c r="B384">
+        <v>72.419413000000006</v>
+      </c>
+      <c r="C384">
+        <v>34.497751999999998</v>
+      </c>
+      <c r="D384">
+        <v>154.33060499999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>639.55531099999996</v>
+      </c>
+      <c r="B385">
+        <v>72.269233999999997</v>
+      </c>
+      <c r="C385">
+        <v>34.990265999999998</v>
+      </c>
+      <c r="D385">
+        <v>153.98668900000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>636.86807399999998</v>
+      </c>
+      <c r="B386">
+        <v>72.124328000000006</v>
+      </c>
+      <c r="C386">
+        <v>35.480888</v>
+      </c>
+      <c r="D386">
+        <v>153.645149</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>634.16371500000002</v>
+      </c>
+      <c r="B387">
+        <v>71.984899999999996</v>
+      </c>
+      <c r="C387">
+        <v>35.969382000000003</v>
+      </c>
+      <c r="D387">
+        <v>153.30616000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>631.44434200000001</v>
+      </c>
+      <c r="B388">
+        <v>71.851172000000005</v>
+      </c>
+      <c r="C388">
+        <v>36.455503</v>
+      </c>
+      <c r="D388">
+        <v>152.969898</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>628.71217300000001</v>
+      </c>
+      <c r="B389">
+        <v>71.723376999999999</v>
+      </c>
+      <c r="C389">
+        <v>36.938994999999998</v>
+      </c>
+      <c r="D389">
+        <v>152.63654600000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>625.96954200000005</v>
+      </c>
+      <c r="B390">
+        <v>71.601768000000007</v>
+      </c>
+      <c r="C390">
+        <v>37.419589000000002</v>
+      </c>
+      <c r="D390">
+        <v>152.30629400000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>623.21889999999996</v>
+      </c>
+      <c r="B391">
+        <v>71.486610999999996</v>
+      </c>
+      <c r="C391">
+        <v>37.897005999999998</v>
+      </c>
+      <c r="D391">
+        <v>151.97933399999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>620.46281799999997</v>
+      </c>
+      <c r="B392">
+        <v>71.378187999999994</v>
+      </c>
+      <c r="C392">
+        <v>38.370953999999998</v>
+      </c>
+      <c r="D392">
+        <v>151.65586500000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>617.70399099999997</v>
+      </c>
+      <c r="B393">
+        <v>71.276799999999994</v>
+      </c>
+      <c r="C393">
+        <v>38.841127999999998</v>
+      </c>
+      <c r="D393">
+        <v>151.33609200000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>614.94523900000002</v>
+      </c>
+      <c r="B394">
+        <v>71.182764000000006</v>
+      </c>
+      <c r="C394">
+        <v>39.307209999999998</v>
+      </c>
+      <c r="D394">
+        <v>151.02022299999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>612.18950800000005</v>
+      </c>
+      <c r="B395">
+        <v>71.096416000000005</v>
+      </c>
+      <c r="C395">
+        <v>39.768869000000002</v>
+      </c>
+      <c r="D395">
+        <v>150.70847499999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>609.43986900000004</v>
+      </c>
+      <c r="B396">
+        <v>71.018108999999995</v>
+      </c>
+      <c r="C396">
+        <v>40.225760999999999</v>
+      </c>
+      <c r="D396">
+        <v>150.40106700000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>606.699522</v>
+      </c>
+      <c r="B397">
+        <v>70.948212999999996</v>
+      </c>
+      <c r="C397">
+        <v>40.677528000000002</v>
+      </c>
+      <c r="D397">
+        <v>150.09822399999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>603.97178599999995</v>
+      </c>
+      <c r="B398">
+        <v>70.887118000000001</v>
+      </c>
+      <c r="C398">
+        <v>41.123798999999998</v>
+      </c>
+      <c r="D398">
+        <v>149.80017599999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>601.26010299999996</v>
+      </c>
+      <c r="B399">
+        <v>70.835229999999996</v>
+      </c>
+      <c r="C399">
+        <v>41.564188999999999</v>
+      </c>
+      <c r="D399">
+        <v>149.507158</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>598.56802900000002</v>
+      </c>
+      <c r="B400">
+        <v>70.792969999999997</v>
+      </c>
+      <c r="C400">
+        <v>41.998303</v>
+      </c>
+      <c r="D400">
+        <v>149.21940599999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>595.89922799999999</v>
+      </c>
+      <c r="B401">
+        <v>70.760777000000004</v>
+      </c>
+      <c r="C401">
+        <v>42.425732000000004</v>
+      </c>
+      <c r="D401">
+        <v>148.937161</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>593.25745900000004</v>
+      </c>
+      <c r="B402">
+        <v>70.739101000000005</v>
+      </c>
+      <c r="C402">
+        <v>42.846057999999999</v>
+      </c>
+      <c r="D402">
+        <v>148.66066599999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>590.646568</v>
+      </c>
+      <c r="B403">
+        <v>70.728407000000004</v>
+      </c>
+      <c r="C403">
+        <v>43.258854999999997</v>
+      </c>
+      <c r="D403">
+        <v>148.390164</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>588.07047</v>
+      </c>
+      <c r="B404">
+        <v>70.729167000000004</v>
+      </c>
+      <c r="C404">
+        <v>43.663688</v>
+      </c>
+      <c r="D404">
+        <v>148.12589700000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>585.53313300000002</v>
+      </c>
+      <c r="B405">
+        <v>70.741861</v>
+      </c>
+      <c r="C405">
+        <v>44.060119</v>
+      </c>
+      <c r="D405">
+        <v>147.86810700000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>583.03855399999998</v>
+      </c>
+      <c r="B406">
+        <v>70.766972999999993</v>
+      </c>
+      <c r="C406">
+        <v>44.447707999999999</v>
+      </c>
+      <c r="D406">
+        <v>147.617031</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>580.59073799999999</v>
+      </c>
+      <c r="B407">
+        <v>70.804982999999993</v>
+      </c>
+      <c r="C407">
+        <v>44.826014000000001</v>
+      </c>
+      <c r="D407">
+        <v>147.37289999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>578.19366400000001</v>
+      </c>
+      <c r="B408">
+        <v>70.856370999999996</v>
+      </c>
+      <c r="C408">
+        <v>45.194603999999998</v>
+      </c>
+      <c r="D408">
+        <v>147.135941</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>575.85126400000001</v>
+      </c>
+      <c r="B409">
+        <v>70.921603000000005</v>
+      </c>
+      <c r="C409">
+        <v>45.553049000000001</v>
+      </c>
+      <c r="D409">
+        <v>146.90636599999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>573.56737999999996</v>
+      </c>
+      <c r="B410">
+        <v>71.001131999999998</v>
+      </c>
+      <c r="C410">
+        <v>45.900936999999999</v>
+      </c>
+      <c r="D410">
+        <v>146.68438</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>571.34573499999999</v>
+      </c>
+      <c r="B411">
+        <v>71.095389999999995</v>
+      </c>
+      <c r="C411">
+        <v>46.237870999999998</v>
+      </c>
+      <c r="D411">
+        <v>146.47017099999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>569.18989499999998</v>
+      </c>
+      <c r="B412">
+        <v>71.20478</v>
+      </c>
+      <c r="C412">
+        <v>46.563473999999999</v>
+      </c>
+      <c r="D412">
+        <v>146.26391000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>567.10322699999995</v>
+      </c>
+      <c r="B413">
+        <v>71.329673999999997</v>
+      </c>
+      <c r="C413">
+        <v>46.877397999999999</v>
+      </c>
+      <c r="D413">
+        <v>146.06574900000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>565.08887000000004</v>
+      </c>
+      <c r="B414">
+        <v>71.470406999999994</v>
+      </c>
+      <c r="C414">
+        <v>47.179326000000003</v>
+      </c>
+      <c r="D414">
+        <v>145.87581900000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>563.14969099999996</v>
+      </c>
+      <c r="B415">
+        <v>71.627264999999994</v>
+      </c>
+      <c r="C415">
+        <v>47.468975</v>
+      </c>
+      <c r="D415">
+        <v>145.69422700000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>561.28825700000004</v>
+      </c>
+      <c r="B416">
+        <v>71.800489999999996</v>
+      </c>
+      <c r="C416">
+        <v>47.746102</v>
+      </c>
+      <c r="D416">
+        <v>145.52105399999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>559.50680399999999</v>
+      </c>
+      <c r="B417">
+        <v>71.990263999999996</v>
+      </c>
+      <c r="C417">
+        <v>48.010506999999997</v>
+      </c>
+      <c r="D417">
+        <v>145.35635400000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>557.80721000000005</v>
+      </c>
+      <c r="B418">
+        <v>72.196717000000007</v>
+      </c>
+      <c r="C418">
+        <v>48.262039000000001</v>
+      </c>
+      <c r="D418">
+        <v>145.200154</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>556.19098099999997</v>
+      </c>
+      <c r="B419">
+        <v>72.419911999999997</v>
+      </c>
+      <c r="C419">
+        <v>48.500591</v>
+      </c>
+      <c r="D419">
+        <v>145.05244999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>554.65923099999998</v>
+      </c>
+      <c r="B420">
+        <v>72.659854999999993</v>
+      </c>
+      <c r="C420">
+        <v>48.726108000000004</v>
+      </c>
+      <c r="D420">
+        <v>144.91321099999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
